--- a/Data/EC/NIT-9000789985.xlsx
+++ b/Data/EC/NIT-9000789985.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B29746-7E17-4122-B6EB-B3D7CC1081DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{074FC368-0148-4C69-8305-FF475A9E7DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A77E54F-785E-47C8-937E-82094427A0CA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A8F2A785-6061-4429-87EA-77AA831E750F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="84">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,181 +65,196 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45365504</t>
+  </si>
+  <si>
+    <t>MELBA PADILLA ROMERO</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>1048938935</t>
+  </si>
+  <si>
+    <t>MONICA PATRICIA SOSSA JACOME</t>
+  </si>
+  <si>
+    <t>1140840506</t>
+  </si>
+  <si>
+    <t>KATHERIN VANESA MARTINEZ RANGEL</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
     <t>32273756</t>
   </si>
   <si>
     <t>PATRICIA ISABEL FLOREZ BRIAND</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
     <t>2104</t>
   </si>
   <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
     <t>20308809</t>
   </si>
   <si>
     <t>JUAN GABRIEL BOLAÑOS OCHOA</t>
   </si>
   <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
     <t>20335511</t>
   </si>
   <si>
     <t>CAMILO ANDRES CASTILLO MONTERO</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>1140840506</t>
-  </si>
-  <si>
-    <t>KATHERIN VANESA MARTINEZ RANGEL</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -653,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{803C84DD-6DC9-82D9-831C-D959DA4973FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C455C5-0D56-A75B-9C29-471B152B13E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,8 +1019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86522E36-B653-4EB8-804F-1447426CFEDA}">
-  <dimension ref="B2:J101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FBEA-1FB8-4632-AED5-C1E74E73D74F}">
+  <dimension ref="B2:J107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1029,7 +1044,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1074,7 +1089,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1106,12 +1121,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3178873</v>
+        <v>3445614</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1122,17 +1137,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1159,13 +1174,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1182,10 +1197,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1205,10 +1220,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1219,19 +1234,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1242,19 +1257,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="E19" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1265,19 +1280,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1288,19 +1303,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1311,19 +1326,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1334,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1357,19 +1372,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1380,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F25" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1403,19 +1418,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1426,19 +1441,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1449,19 +1464,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1472,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1495,19 +1510,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1518,19 +1533,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1541,19 +1556,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1564,19 +1579,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1587,19 +1602,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1610,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1633,19 +1648,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1656,19 +1671,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1679,19 +1694,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1702,19 +1717,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1725,19 +1740,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1748,19 +1763,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1771,19 +1786,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>39</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1794,13 +1809,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>46400</v>
@@ -1817,19 +1832,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1840,10 +1855,10 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>42</v>
@@ -1863,10 +1878,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>43</v>
@@ -1886,19 +1901,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G47" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1909,13 +1924,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F48" s="18">
         <v>36341</v>
@@ -1932,19 +1947,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="F49" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1955,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F50" s="18">
         <v>36341</v>
@@ -1978,19 +1993,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2001,13 +2016,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F52" s="18">
         <v>36341</v>
@@ -2024,19 +2039,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F53" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G53" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2047,19 +2062,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F54" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G54" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2070,13 +2085,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F55" s="18">
         <v>36341</v>
@@ -2093,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2116,13 +2131,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2139,13 +2154,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F58" s="18">
         <v>36341</v>
@@ -2162,19 +2177,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F59" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2185,19 +2200,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F60" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2208,13 +2223,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2231,19 +2246,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F62" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G62" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2254,13 +2269,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2277,19 +2292,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="F64" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G64" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2300,13 +2315,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2323,13 +2338,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F66" s="18">
         <v>36341</v>
@@ -2346,19 +2361,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F67" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2369,19 +2384,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F68" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G68" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2392,13 +2407,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2415,13 +2430,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F70" s="18">
         <v>36341</v>
@@ -2438,19 +2453,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F71" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G71" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2461,13 +2476,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F72" s="18">
         <v>36341</v>
@@ -2484,19 +2499,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F73" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G73" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2507,13 +2522,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F74" s="18">
         <v>36341</v>
@@ -2530,19 +2545,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F75" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G75" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2553,13 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
         <v>36341</v>
@@ -2576,19 +2591,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="F77" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G77" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2599,13 +2614,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F78" s="18">
         <v>36341</v>
@@ -2622,19 +2637,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F79" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G79" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2645,19 +2660,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F80" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G80" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2668,13 +2683,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F81" s="18">
         <v>36341</v>
@@ -2691,19 +2706,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F82" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G82" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2714,13 +2729,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F83" s="18">
         <v>36341</v>
@@ -2737,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F84" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G84" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2760,13 +2775,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F85" s="18">
         <v>36341</v>
@@ -2783,19 +2798,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F86" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G86" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2806,13 +2821,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F87" s="18">
         <v>36341</v>
@@ -2829,19 +2844,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F88" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G88" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2852,13 +2867,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F89" s="18">
         <v>36341</v>
@@ -2875,13 +2890,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F90" s="18">
         <v>36341</v>
@@ -2898,19 +2913,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F91" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G91" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2921,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F92" s="18">
         <v>36341</v>
@@ -2944,19 +2959,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F93" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G93" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2967,13 +2982,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F94" s="18">
         <v>36341</v>
@@ -2986,56 +3001,194 @@
       <c r="J94" s="20"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B95" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E95" s="22" t="s">
+      <c r="B95" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G95" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="20"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B96" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G96" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="20"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G97" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G95" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="26"/>
+      <c r="F98" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G98" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="20"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G99" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="32"/>
-      <c r="H100" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G100" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C101" s="32"/>
-      <c r="H101" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="B101" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G101" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="26"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="H106" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C107" s="32"/>
+      <c r="H107" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H106:J106"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9000789985.xlsx
+++ b/Data/EC/NIT-9000789985.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{074FC368-0148-4C69-8305-FF475A9E7DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABBE497-105D-4C39-BBD1-2E77C7C83CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A8F2A785-6061-4429-87EA-77AA831E750F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6256D1EA-5CC5-4163-A172-1DECE0833627}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="81">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,196 +65,187 @@
     <t>CC</t>
   </si>
   <si>
-    <t>45365504</t>
-  </si>
-  <si>
-    <t>MELBA PADILLA ROMERO</t>
+    <t>32273756</t>
+  </si>
+  <si>
+    <t>PATRICIA ISABEL FLOREZ BRIAND</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>20308809</t>
+  </si>
+  <si>
+    <t>JUAN GABRIEL BOLAÑOS OCHOA</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>20335511</t>
+  </si>
+  <si>
+    <t>CAMILO ANDRES CASTILLO MONTERO</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
   </si>
   <si>
     <t>2303</t>
   </si>
   <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1048938935</t>
-  </si>
-  <si>
-    <t>MONICA PATRICIA SOSSA JACOME</t>
-  </si>
-  <si>
     <t>1140840506</t>
   </si>
   <si>
     <t>KATHERIN VANESA MARTINEZ RANGEL</t>
   </si>
   <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>32273756</t>
-  </si>
-  <si>
-    <t>PATRICIA ISABEL FLOREZ BRIAND</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>20308809</t>
-  </si>
-  <si>
-    <t>JUAN GABRIEL BOLAÑOS OCHOA</t>
-  </si>
-  <si>
-    <t>20335511</t>
-  </si>
-  <si>
-    <t>CAMILO ANDRES CASTILLO MONTERO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -353,7 +344,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -366,9 +359,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -568,23 +559,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +603,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,7 +659,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C455C5-0D56-A75B-9C29-471B152B13E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{209C231E-220B-415A-8A08-3710C0F35F34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1019,8 +1010,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2755FBEA-1FB8-4632-AED5-C1E74E73D74F}">
-  <dimension ref="B2:J107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96D7F60-4512-4D35-B4E3-C9DA77297A96}">
+  <dimension ref="B2:J105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1044,7 +1035,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1089,7 +1080,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1121,12 +1112,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3445614</v>
+        <v>3344355</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1137,17 +1128,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1174,13 +1165,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1197,10 +1188,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1220,10 +1211,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1234,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1257,19 +1248,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1280,19 +1271,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1303,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1326,19 +1317,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1349,19 +1340,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1372,19 +1363,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1395,19 +1386,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1418,19 +1409,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1441,19 +1432,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1464,19 +1455,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1487,19 +1478,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1510,19 +1501,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1533,19 +1524,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1556,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1579,19 +1570,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1602,19 +1593,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1625,19 +1616,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1648,19 +1639,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1671,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1694,19 +1685,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1717,19 +1708,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1740,19 +1731,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1763,19 +1754,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1786,13 +1777,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
         <v>46400</v>
@@ -1809,19 +1800,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1832,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>46400</v>
@@ -1855,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F45" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1878,10 +1869,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>43</v>
@@ -1901,19 +1892,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1924,19 +1915,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1947,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>36341</v>
@@ -1970,19 +1961,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F50" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1993,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F51" s="18">
         <v>36341</v>
@@ -2016,19 +2007,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D52" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F52" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G52" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2039,13 +2030,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F53" s="18">
         <v>36341</v>
@@ -2062,19 +2053,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F54" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G54" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2085,13 +2076,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F55" s="18">
         <v>36341</v>
@@ -2108,19 +2099,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="F56" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G56" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2131,13 +2122,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
         <v>36341</v>
@@ -2154,19 +2145,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F58" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2177,13 +2168,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F59" s="18">
         <v>36341</v>
@@ -2200,19 +2191,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F60" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G60" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2223,13 +2214,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F61" s="18">
         <v>36341</v>
@@ -2246,19 +2237,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F62" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G62" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2269,13 +2260,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F63" s="18">
         <v>36341</v>
@@ -2292,19 +2283,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F64" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2315,13 +2306,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2338,19 +2329,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F66" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G66" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2361,13 +2352,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F67" s="18">
         <v>36341</v>
@@ -2384,19 +2375,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F68" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G68" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2407,13 +2398,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F69" s="18">
         <v>36341</v>
@@ -2430,19 +2421,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F70" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G70" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2453,13 +2444,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F71" s="18">
         <v>36341</v>
@@ -2476,19 +2467,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F72" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G72" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2499,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F73" s="18">
         <v>36341</v>
@@ -2522,19 +2513,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F74" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G74" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2545,13 +2536,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F75" s="18">
         <v>36341</v>
@@ -2568,19 +2559,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F76" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G76" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2591,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F77" s="18">
         <v>36341</v>
@@ -2614,19 +2605,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F78" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G78" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2637,13 +2628,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F79" s="18">
         <v>36341</v>
@@ -2660,19 +2651,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F80" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G80" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2683,13 +2674,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F81" s="18">
         <v>36341</v>
@@ -2706,19 +2697,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F82" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G82" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2729,13 +2720,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F83" s="18">
         <v>36341</v>
@@ -2752,19 +2743,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F84" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G84" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2775,13 +2766,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F85" s="18">
         <v>36341</v>
@@ -2798,19 +2789,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F86" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G86" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2821,13 +2812,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F87" s="18">
         <v>36341</v>
@@ -2844,19 +2835,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F88" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G88" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2867,13 +2858,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F89" s="18">
         <v>36341</v>
@@ -2890,19 +2881,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F90" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G90" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2913,13 +2904,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F91" s="18">
         <v>36341</v>
@@ -2936,19 +2927,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F92" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G92" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2959,13 +2950,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F93" s="18">
         <v>36341</v>
@@ -2982,19 +2973,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F94" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G94" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3005,13 +2996,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F95" s="18">
         <v>36341</v>
@@ -3028,19 +3019,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F96" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G96" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3051,13 +3042,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F97" s="18">
         <v>36341</v>
@@ -3074,121 +3065,75 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F98" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G98" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F99" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G99" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
+      <c r="B99" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F100" s="18">
-        <v>36341</v>
-      </c>
-      <c r="G100" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F101" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G101" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="26"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="H106" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C107" s="32"/>
-      <c r="H107" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="F99" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G99" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="26"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="H104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="H105" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H104:J104"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
